--- a/database - circanual/percentage offspring/IS-Sire-percentage of offspring by parent birthmonth.xlsx
+++ b/database - circanual/percentage offspring/IS-Sire-percentage of offspring by parent birthmonth.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -469,7 +469,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -580,39 +580,9 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>12.19512195121951</v>
-      </c>
-      <c r="C8">
-        <v>4.878048780487805</v>
-      </c>
-      <c r="D8">
-        <v>7.317073170731707</v>
-      </c>
-      <c r="F8">
-        <v>14.63414634146341</v>
-      </c>
-      <c r="G8">
-        <v>12.19512195121951</v>
-      </c>
-      <c r="H8">
-        <v>14.63414634146341</v>
-      </c>
-      <c r="I8">
-        <v>7.317073170731707</v>
-      </c>
-      <c r="J8">
-        <v>7.317073170731707</v>
-      </c>
-      <c r="K8">
-        <v>7.317073170731707</v>
-      </c>
-      <c r="M8">
-        <v>12.19512195121951</v>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -655,7 +625,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -663,33 +633,9 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>3.846153846153846</v>
-      </c>
-      <c r="F10">
-        <v>11.53846153846154</v>
-      </c>
-      <c r="G10">
-        <v>3.846153846153846</v>
-      </c>
-      <c r="H10">
-        <v>11.53846153846154</v>
-      </c>
-      <c r="I10">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="J10">
-        <v>19.23076923076923</v>
-      </c>
-      <c r="K10">
-        <v>11.53846153846154</v>
-      </c>
-      <c r="M10">
-        <v>23.07692307692308</v>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -735,7 +681,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -743,39 +689,9 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>6.976744186046512</v>
-      </c>
-      <c r="E12">
-        <v>6.976744186046512</v>
-      </c>
-      <c r="F12">
-        <v>6.976744186046512</v>
-      </c>
-      <c r="G12">
-        <v>16.27906976744186</v>
-      </c>
-      <c r="H12">
-        <v>13.95348837209302</v>
-      </c>
-      <c r="I12">
-        <v>11.62790697674419</v>
-      </c>
-      <c r="J12">
-        <v>6.976744186046512</v>
-      </c>
-      <c r="K12">
-        <v>11.62790697674419</v>
-      </c>
-      <c r="L12">
-        <v>4.651162790697675</v>
-      </c>
-      <c r="M12">
-        <v>13.95348837209302</v>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -821,7 +737,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1991-1995</t>
         </is>
       </c>
     </row>
@@ -830,41 +746,41 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>4.918032786885246</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="C14">
-        <v>11.47540983606557</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="E14">
-        <v>11.47540983606557</v>
+        <v>11.36363636363636</v>
       </c>
       <c r="F14">
-        <v>6.557377049180328</v>
+        <v>6.818181818181817</v>
       </c>
       <c r="G14">
-        <v>8.196721311475409</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="H14">
-        <v>8.196721311475409</v>
+        <v>6.818181818181817</v>
       </c>
       <c r="I14">
-        <v>11.47540983606557</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="J14">
-        <v>9.836065573770492</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="K14">
-        <v>11.47540983606557</v>
+        <v>11.36363636363636</v>
       </c>
       <c r="L14">
-        <v>9.836065573770492</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="M14">
-        <v>6.557377049180328</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -873,44 +789,41 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>5.405405405405405</v>
+        <v>3.508771929824561</v>
       </c>
       <c r="C15">
-        <v>8.108108108108109</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="D15">
-        <v>8.108108108108109</v>
+        <v>7.017543859649122</v>
       </c>
       <c r="E15">
-        <v>9.45945945945946</v>
-      </c>
-      <c r="F15">
-        <v>2.702702702702703</v>
+        <v>12.28070175438596</v>
       </c>
       <c r="G15">
-        <v>9.45945945945946</v>
+        <v>8.771929824561402</v>
       </c>
       <c r="H15">
-        <v>12.16216216216216</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="I15">
-        <v>2.702702702702703</v>
+        <v>3.508771929824561</v>
       </c>
       <c r="J15">
-        <v>10.81081081081081</v>
+        <v>14.03508771929824</v>
       </c>
       <c r="K15">
-        <v>6.756756756756757</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L15">
-        <v>12.16216216216216</v>
+        <v>12.28070175438596</v>
       </c>
       <c r="M15">
-        <v>12.16216216216216</v>
+        <v>12.28070175438596</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -919,38 +832,32 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="C16">
-        <v>8.333333333333332</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="E16">
-        <v>13.88888888888889</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="F16">
-        <v>13.88888888888889</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="G16">
-        <v>2.777777777777778</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="H16">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="I16">
-        <v>8.333333333333332</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="J16">
-        <v>8.333333333333332</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="K16">
-        <v>13.88888888888889</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L16">
-        <v>8.333333333333332</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -975,7 +882,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1015,7 +922,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1055,7 +962,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1064,41 +971,44 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>11.9047619047619</v>
+        <v>10.12658227848101</v>
       </c>
       <c r="C20">
-        <v>4.761904761904762</v>
+        <v>5.063291139240507</v>
       </c>
       <c r="D20">
-        <v>2.380952380952381</v>
+        <v>5.063291139240507</v>
       </c>
       <c r="E20">
-        <v>9.523809523809524</v>
+        <v>5.063291139240507</v>
       </c>
       <c r="F20">
-        <v>4.761904761904762</v>
+        <v>10.12658227848101</v>
       </c>
       <c r="G20">
-        <v>11.9047619047619</v>
+        <v>12.65822784810127</v>
       </c>
       <c r="H20">
-        <v>14.28571428571428</v>
+        <v>15.18987341772152</v>
+      </c>
+      <c r="I20">
+        <v>3.79746835443038</v>
       </c>
       <c r="J20">
-        <v>9.523809523809524</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="K20">
-        <v>14.28571428571428</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="L20">
-        <v>2.380952380952381</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="M20">
-        <v>14.28571428571428</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1106,27 +1016,21 @@
       <c r="A21">
         <v>8</v>
       </c>
-      <c r="B21">
-        <v>6.25</v>
-      </c>
-      <c r="C21">
-        <v>6.25</v>
-      </c>
       <c r="D21">
-        <v>37.5</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="G21">
-        <v>12.5</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="H21">
-        <v>12.5</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1135,44 +1039,44 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>5.494505494505495</v>
+        <v>4.672897196261682</v>
       </c>
       <c r="C22">
-        <v>8.791208791208792</v>
+        <v>5.607476635514018</v>
       </c>
       <c r="D22">
-        <v>10.98901098901099</v>
+        <v>7.476635514018691</v>
       </c>
       <c r="E22">
-        <v>7.692307692307693</v>
+        <v>6.542056074766355</v>
       </c>
       <c r="F22">
-        <v>8.791208791208792</v>
+        <v>10.2803738317757</v>
       </c>
       <c r="G22">
-        <v>9.890109890109891</v>
+        <v>8.411214953271028</v>
       </c>
       <c r="H22">
-        <v>7.692307692307693</v>
+        <v>9.345794392523365</v>
       </c>
       <c r="I22">
-        <v>7.692307692307693</v>
+        <v>8.411214953271028</v>
       </c>
       <c r="J22">
-        <v>7.692307692307693</v>
+        <v>11.21495327102804</v>
       </c>
       <c r="K22">
-        <v>10.98901098901099</v>
+        <v>11.21495327102804</v>
       </c>
       <c r="L22">
-        <v>9.890109890109891</v>
+        <v>8.411214953271028</v>
       </c>
       <c r="M22">
-        <v>4.395604395604396</v>
+        <v>8.411214953271028</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1181,44 +1085,44 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>12.90322580645161</v>
+        <v>13.43283582089552</v>
       </c>
       <c r="C23">
-        <v>6.451612903225806</v>
+        <v>2.985074626865671</v>
       </c>
       <c r="D23">
-        <v>8.60215053763441</v>
+        <v>8.955223880597014</v>
       </c>
       <c r="E23">
-        <v>5.376344086021505</v>
+        <v>7.462686567164178</v>
       </c>
       <c r="F23">
-        <v>11.82795698924731</v>
+        <v>10.44776119402985</v>
       </c>
       <c r="G23">
-        <v>9.67741935483871</v>
+        <v>7.462686567164178</v>
       </c>
       <c r="H23">
-        <v>6.451612903225806</v>
+        <v>8.955223880597014</v>
       </c>
       <c r="I23">
-        <v>10.75268817204301</v>
+        <v>8.955223880597014</v>
       </c>
       <c r="J23">
-        <v>9.67741935483871</v>
+        <v>13.43283582089552</v>
       </c>
       <c r="K23">
-        <v>8.60215053763441</v>
+        <v>8.955223880597014</v>
       </c>
       <c r="L23">
-        <v>4.301075268817205</v>
+        <v>4.477611940298507</v>
       </c>
       <c r="M23">
-        <v>5.376344086021505</v>
+        <v>4.477611940298507</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1227,44 +1131,44 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>8.695652173913043</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="C24">
-        <v>9.565217391304348</v>
+        <v>10.25641025641026</v>
       </c>
       <c r="D24">
-        <v>5.217391304347826</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="E24">
-        <v>6.086956521739131</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="F24">
-        <v>9.565217391304348</v>
+        <v>9.401709401709402</v>
       </c>
       <c r="G24">
-        <v>11.30434782608696</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="H24">
-        <v>6.086956521739131</v>
+        <v>10.25641025641026</v>
       </c>
       <c r="I24">
-        <v>9.565217391304348</v>
+        <v>8.547008547008547</v>
       </c>
       <c r="J24">
-        <v>13.04347826086956</v>
+        <v>11.96581196581197</v>
       </c>
       <c r="K24">
-        <v>4.347826086956522</v>
+        <v>4.273504273504273</v>
       </c>
       <c r="L24">
-        <v>7.82608695652174</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="M24">
-        <v>8.695652173913043</v>
+        <v>11.96581196581197</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1272,36 +1176,9 @@
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="D25">
-        <v>11.53846153846154</v>
-      </c>
-      <c r="F25">
-        <v>11.53846153846154</v>
-      </c>
-      <c r="G25">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="H25">
-        <v>3.846153846153846</v>
-      </c>
-      <c r="I25">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="J25">
-        <v>11.53846153846154</v>
-      </c>
-      <c r="K25">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L25">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="M25">
-        <v>7.692307692307693</v>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>1996-2000</t>
         </is>
       </c>
     </row>
@@ -1310,44 +1187,44 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>12.64367816091954</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="C26">
-        <v>5.747126436781609</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="D26">
-        <v>8.045977011494253</v>
+        <v>6.730769230769231</v>
       </c>
       <c r="E26">
-        <v>8.045977011494253</v>
+        <v>8.653846153846153</v>
       </c>
       <c r="F26">
-        <v>11.49425287356322</v>
+        <v>10.57692307692308</v>
       </c>
       <c r="G26">
-        <v>8.045977011494253</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H26">
-        <v>5.747126436781609</v>
+        <v>6.730769230769231</v>
       </c>
       <c r="I26">
-        <v>8.045977011494253</v>
+        <v>9.615384615384617</v>
       </c>
       <c r="J26">
-        <v>11.49425287356322</v>
+        <v>9.615384615384617</v>
       </c>
       <c r="K26">
-        <v>8.045977011494253</v>
+        <v>8.653846153846153</v>
       </c>
       <c r="L26">
-        <v>6.896551724137931</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="M26">
-        <v>5.747126436781609</v>
+        <v>4.807692307692308</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1356,44 +1233,44 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>10.63829787234043</v>
+        <v>10.9375</v>
       </c>
       <c r="C27">
-        <v>6.382978723404255</v>
+        <v>4.6875</v>
       </c>
       <c r="D27">
-        <v>10.63829787234043</v>
+        <v>10.9375</v>
       </c>
       <c r="E27">
-        <v>4.25531914893617</v>
+        <v>3.125</v>
       </c>
       <c r="F27">
-        <v>2.127659574468085</v>
+        <v>4.6875</v>
       </c>
       <c r="G27">
-        <v>8.51063829787234</v>
+        <v>9.375</v>
       </c>
       <c r="H27">
-        <v>6.382978723404255</v>
+        <v>9.375</v>
       </c>
       <c r="I27">
-        <v>10.63829787234043</v>
+        <v>7.8125</v>
       </c>
       <c r="J27">
-        <v>10.63829787234043</v>
+        <v>7.8125</v>
       </c>
       <c r="K27">
-        <v>8.51063829787234</v>
+        <v>9.375</v>
       </c>
       <c r="L27">
-        <v>12.76595744680851</v>
+        <v>12.5</v>
       </c>
       <c r="M27">
-        <v>8.51063829787234</v>
+        <v>9.375</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1402,41 +1279,41 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>9.25925925925926</v>
+        <v>10.14492753623188</v>
       </c>
       <c r="C28">
-        <v>9.25925925925926</v>
+        <v>11.59420289855072</v>
       </c>
       <c r="E28">
-        <v>9.25925925925926</v>
+        <v>11.59420289855072</v>
       </c>
       <c r="F28">
-        <v>9.25925925925926</v>
+        <v>7.246376811594203</v>
       </c>
       <c r="G28">
-        <v>5.555555555555555</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="H28">
-        <v>5.555555555555555</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="I28">
-        <v>7.407407407407407</v>
+        <v>10.14492753623188</v>
       </c>
       <c r="J28">
-        <v>12.96296296296296</v>
+        <v>11.59420289855072</v>
       </c>
       <c r="K28">
-        <v>9.25925925925926</v>
+        <v>11.59420289855072</v>
       </c>
       <c r="L28">
-        <v>14.81481481481481</v>
+        <v>11.59420289855072</v>
       </c>
       <c r="M28">
-        <v>7.407407407407407</v>
+        <v>5.797101449275362</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1445,44 +1322,44 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>8.974358974358974</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="C29">
-        <v>7.264957264957266</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="D29">
-        <v>7.692307692307693</v>
+        <v>7.526881720430108</v>
       </c>
       <c r="E29">
-        <v>7.692307692307693</v>
+        <v>7.526881720430108</v>
       </c>
       <c r="F29">
-        <v>10.25641025641026</v>
+        <v>10.21505376344086</v>
       </c>
       <c r="G29">
-        <v>5.982905982905983</v>
+        <v>7.526881720430108</v>
       </c>
       <c r="H29">
-        <v>2.564102564102564</v>
+        <v>2.688172043010753</v>
       </c>
       <c r="I29">
-        <v>9.401709401709402</v>
+        <v>6.989247311827956</v>
       </c>
       <c r="J29">
-        <v>12.39316239316239</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="K29">
-        <v>9.401709401709402</v>
+        <v>10.21505376344086</v>
       </c>
       <c r="L29">
-        <v>9.82905982905983</v>
+        <v>8.60215053763441</v>
       </c>
       <c r="M29">
-        <v>8.547008547008547</v>
+        <v>10.21505376344086</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1490,45 +1367,9 @@
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>7.857142857142857</v>
-      </c>
-      <c r="D30">
-        <v>10.71428571428571</v>
-      </c>
-      <c r="E30">
-        <v>12.14285714285714</v>
-      </c>
-      <c r="F30">
-        <v>10.71428571428571</v>
-      </c>
-      <c r="G30">
-        <v>10</v>
-      </c>
-      <c r="H30">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="I30">
-        <v>6.428571428571428</v>
-      </c>
-      <c r="J30">
-        <v>5.714285714285714</v>
-      </c>
-      <c r="K30">
-        <v>5</v>
-      </c>
-      <c r="L30">
-        <v>5</v>
-      </c>
-      <c r="M30">
-        <v>7.857142857142857</v>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1537,44 +1378,38 @@
         <v>6</v>
       </c>
       <c r="B31">
-        <v>13.30049261083744</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="C31">
-        <v>7.881773399014778</v>
+        <v>13.79310344827586</v>
       </c>
       <c r="D31">
-        <v>4.433497536945813</v>
-      </c>
-      <c r="E31">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="F31">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="G31">
         <v>6.896551724137931</v>
       </c>
-      <c r="F31">
-        <v>9.852216748768473</v>
-      </c>
-      <c r="G31">
-        <v>9.852216748768473</v>
-      </c>
       <c r="H31">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="J31">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="K31">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="L31">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="M31">
         <v>6.896551724137931</v>
       </c>
-      <c r="I31">
-        <v>5.911330049261084</v>
-      </c>
-      <c r="J31">
-        <v>9.852216748768473</v>
-      </c>
-      <c r="K31">
-        <v>8.866995073891626</v>
-      </c>
-      <c r="L31">
-        <v>5.911330049261084</v>
-      </c>
-      <c r="M31">
-        <v>10.3448275862069</v>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1583,41 +1418,41 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>15.85365853658537</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="C32">
-        <v>8.536585365853659</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="D32">
-        <v>7.317073170731707</v>
+        <v>9.230769230769232</v>
       </c>
       <c r="E32">
-        <v>9.75609756097561</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="F32">
-        <v>15.85365853658537</v>
+        <v>13.84615384615385</v>
       </c>
       <c r="G32">
-        <v>6.097560975609756</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H32">
-        <v>3.658536585365853</v>
+        <v>4.615384615384616</v>
       </c>
       <c r="I32">
-        <v>9.75609756097561</v>
+        <v>12.30769230769231</v>
       </c>
       <c r="K32">
-        <v>6.097560975609756</v>
+        <v>4.615384615384616</v>
       </c>
       <c r="L32">
-        <v>6.097560975609756</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="M32">
-        <v>10.97560975609756</v>
+        <v>9.230769230769232</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1626,44 +1461,29 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>11.76470588235294</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="C33">
-        <v>5.88235294117647</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D33">
-        <v>14.70588235294118</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="E33">
-        <v>11.76470588235294</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="F33">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="G33">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="H33">
-        <v>8.823529411764707</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="I33">
-        <v>2.941176470588235</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="J33">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="K33">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L33">
-        <v>2.941176470588235</v>
-      </c>
-      <c r="M33">
-        <v>11.76470588235294</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1672,44 +1492,44 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>8.904109589041095</v>
+        <v>7.8125</v>
       </c>
       <c r="C34">
-        <v>13.01369863013699</v>
+        <v>14.0625</v>
       </c>
       <c r="D34">
-        <v>9.58904109589041</v>
+        <v>12.5</v>
       </c>
       <c r="E34">
-        <v>6.849315068493151</v>
+        <v>12.5</v>
       </c>
       <c r="F34">
-        <v>8.904109589041095</v>
+        <v>4.6875</v>
       </c>
       <c r="G34">
-        <v>6.849315068493151</v>
+        <v>4.6875</v>
       </c>
       <c r="H34">
-        <v>9.58904109589041</v>
+        <v>10.9375</v>
       </c>
       <c r="I34">
-        <v>10.95890410958904</v>
+        <v>15.625</v>
       </c>
       <c r="J34">
-        <v>5.47945205479452</v>
+        <v>1.5625</v>
       </c>
       <c r="K34">
-        <v>9.58904109589041</v>
+        <v>6.25</v>
       </c>
       <c r="L34">
-        <v>6.849315068493151</v>
+        <v>4.6875</v>
       </c>
       <c r="M34">
-        <v>3.424657534246575</v>
+        <v>4.6875</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1718,44 +1538,44 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="C35">
-        <v>8.75</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="D35">
-        <v>2.5</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="E35">
-        <v>12.5</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="G35">
-        <v>8.75</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="H35">
-        <v>6.25</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="J35">
-        <v>11.25</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="K35">
-        <v>8.75</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L35">
-        <v>8.75</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="M35">
-        <v>7.5</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1764,41 +1584,41 @@
         <v>11</v>
       </c>
       <c r="B36">
-        <v>15.38461538461539</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="C36">
-        <v>15.38461538461539</v>
+        <v>4.878048780487805</v>
       </c>
       <c r="D36">
-        <v>3.846153846153846</v>
-      </c>
-      <c r="E36">
-        <v>3.846153846153846</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="F36">
-        <v>3.846153846153846</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="G36">
-        <v>11.53846153846154</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="H36">
-        <v>11.53846153846154</v>
+        <v>2.439024390243902</v>
+      </c>
+      <c r="I36">
+        <v>14.63414634146341</v>
       </c>
       <c r="J36">
-        <v>15.38461538461539</v>
+        <v>9.75609756097561</v>
       </c>
       <c r="K36">
-        <v>3.846153846153846</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L36">
-        <v>11.53846153846154</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="M36">
-        <v>3.846153846153846</v>
+        <v>4.878048780487805</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1807,44 +1627,44 @@
         <v>12</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>7.865168539325842</v>
       </c>
       <c r="C37">
-        <v>8.181818181818182</v>
+        <v>8.988764044943821</v>
       </c>
       <c r="D37">
-        <v>7.272727272727272</v>
+        <v>6.741573033707865</v>
       </c>
       <c r="E37">
-        <v>5.454545454545454</v>
+        <v>3.370786516853932</v>
       </c>
       <c r="F37">
-        <v>15.45454545454545</v>
+        <v>12.35955056179775</v>
       </c>
       <c r="G37">
-        <v>6.363636363636363</v>
+        <v>7.865168539325842</v>
       </c>
       <c r="H37">
-        <v>2.727272727272727</v>
+        <v>4.49438202247191</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>12.35955056179775</v>
       </c>
       <c r="J37">
-        <v>8.181818181818182</v>
+        <v>10.1123595505618</v>
       </c>
       <c r="K37">
-        <v>4.545454545454546</v>
+        <v>5.617977528089887</v>
       </c>
       <c r="L37">
-        <v>13.63636363636363</v>
+        <v>12.35955056179775</v>
       </c>
       <c r="M37">
-        <v>8.181818181818182</v>
+        <v>7.865168539325842</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2001-2005</t>
         </is>
       </c>
     </row>
@@ -1853,44 +1673,44 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>6.390977443609022</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="C38">
-        <v>6.390977443609022</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="D38">
-        <v>6.766917293233083</v>
+        <v>7.222222222222221</v>
       </c>
       <c r="E38">
-        <v>6.390977443609022</v>
+        <v>7.222222222222221</v>
       </c>
       <c r="F38">
-        <v>7.894736842105263</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="G38">
-        <v>9.398496240601503</v>
+        <v>7.222222222222221</v>
       </c>
       <c r="H38">
-        <v>9.022556390977442</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="I38">
-        <v>14.28571428571428</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="J38">
-        <v>10.52631578947368</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="K38">
-        <v>9.774436090225564</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="L38">
-        <v>4.135338345864661</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>9.022556390977442</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1753,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1763,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -1952,41 +1772,44 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>8.333333333333332</v>
+        <v>10.71428571428571</v>
+      </c>
+      <c r="C41">
+        <v>5.952380952380952</v>
       </c>
       <c r="D41">
         <v>8.333333333333332</v>
       </c>
       <c r="E41">
-        <v>13.88888888888889</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="F41">
-        <v>2.777777777777778</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="G41">
-        <v>13.88888888888889</v>
+        <v>5.952380952380952</v>
       </c>
       <c r="H41">
-        <v>16.66666666666666</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="I41">
-        <v>8.333333333333332</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="J41">
-        <v>8.333333333333332</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="K41">
-        <v>5.555555555555555</v>
+        <v>5.952380952380952</v>
       </c>
       <c r="L41">
-        <v>8.333333333333332</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="M41">
-        <v>5.555555555555555</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -1995,44 +1818,44 @@
         <v>5</v>
       </c>
       <c r="B42">
-        <v>7.407407407407407</v>
+        <v>9.049773755656108</v>
       </c>
       <c r="C42">
-        <v>7.407407407407407</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="D42">
-        <v>8.641975308641975</v>
+        <v>9.95475113122172</v>
       </c>
       <c r="E42">
-        <v>4.938271604938271</v>
+        <v>9.502262443438914</v>
       </c>
       <c r="F42">
-        <v>13.58024691358025</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="G42">
-        <v>7.407407407407407</v>
+        <v>9.049773755656108</v>
       </c>
       <c r="H42">
-        <v>7.407407407407407</v>
+        <v>8.144796380090497</v>
       </c>
       <c r="I42">
-        <v>7.407407407407407</v>
+        <v>6.787330316742081</v>
       </c>
       <c r="J42">
-        <v>4.938271604938271</v>
+        <v>5.429864253393665</v>
       </c>
       <c r="K42">
-        <v>7.407407407407407</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L42">
-        <v>19.75308641975309</v>
+        <v>10.40723981900453</v>
       </c>
       <c r="M42">
-        <v>3.703703703703703</v>
+        <v>6.334841628959276</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2041,35 +1864,44 @@
         <v>6</v>
       </c>
       <c r="B43">
-        <v>12.12121212121212</v>
+        <v>13.52657004830918</v>
       </c>
       <c r="C43">
-        <v>6.060606060606061</v>
+        <v>6.763285024154589</v>
+      </c>
+      <c r="D43">
+        <v>2.898550724637681</v>
       </c>
       <c r="E43">
-        <v>18.18181818181818</v>
+        <v>9.661835748792271</v>
       </c>
       <c r="F43">
-        <v>6.060606060606061</v>
+        <v>9.178743961352657</v>
+      </c>
+      <c r="G43">
+        <v>8.695652173913043</v>
+      </c>
+      <c r="H43">
+        <v>5.314009661835748</v>
       </c>
       <c r="I43">
-        <v>9.090909090909092</v>
+        <v>7.246376811594203</v>
       </c>
       <c r="J43">
-        <v>15.15151515151515</v>
+        <v>10.6280193236715</v>
       </c>
       <c r="K43">
-        <v>12.12121212121212</v>
+        <v>9.178743961352657</v>
       </c>
       <c r="L43">
-        <v>15.15151515151515</v>
+        <v>6.763285024154589</v>
       </c>
       <c r="M43">
-        <v>6.060606060606061</v>
+        <v>10.14492753623188</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2078,44 +1910,44 @@
         <v>7</v>
       </c>
       <c r="B44">
-        <v>5.185185185185185</v>
+        <v>6.569343065693431</v>
       </c>
       <c r="C44">
-        <v>1.481481481481482</v>
+        <v>1.45985401459854</v>
       </c>
       <c r="D44">
-        <v>6.666666666666667</v>
+        <v>6.569343065693431</v>
       </c>
       <c r="E44">
-        <v>11.11111111111111</v>
+        <v>10.94890510948905</v>
       </c>
       <c r="F44">
-        <v>8.888888888888889</v>
+        <v>10.21897810218978</v>
       </c>
       <c r="G44">
-        <v>3.703703703703703</v>
+        <v>3.64963503649635</v>
       </c>
       <c r="H44">
-        <v>12.59259259259259</v>
+        <v>10.21897810218978</v>
       </c>
       <c r="I44">
-        <v>11.11111111111111</v>
+        <v>10.21897810218978</v>
       </c>
       <c r="J44">
-        <v>14.07407407407407</v>
+        <v>13.13868613138686</v>
       </c>
       <c r="K44">
-        <v>11.11111111111111</v>
+        <v>10.94890510948905</v>
       </c>
       <c r="L44">
-        <v>9.62962962962963</v>
+        <v>9.48905109489051</v>
       </c>
       <c r="M44">
-        <v>4.444444444444445</v>
+        <v>6.569343065693431</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2124,44 +1956,44 @@
         <v>8</v>
       </c>
       <c r="B45">
-        <v>5.072463768115942</v>
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>4.347826086956522</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="D45">
-        <v>13.04347826086956</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="E45">
-        <v>8.695652173913043</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>5.072463768115942</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G45">
-        <v>15.21739130434783</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="H45">
-        <v>10.8695652173913</v>
+        <v>12</v>
       </c>
       <c r="I45">
-        <v>7.246376811594203</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="J45">
-        <v>9.420289855072465</v>
+        <v>8</v>
       </c>
       <c r="K45">
-        <v>9.420289855072465</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="L45">
-        <v>6.521739130434782</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="M45">
-        <v>5.072463768115942</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2170,38 +2002,44 @@
         <v>9</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="C46">
-        <v>3.333333333333333</v>
+        <v>9.210526315789473</v>
+      </c>
+      <c r="D46">
+        <v>5.263157894736842</v>
       </c>
       <c r="E46">
-        <v>3.333333333333333</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="F46">
-        <v>8.333333333333332</v>
+        <v>9.868421052631579</v>
       </c>
       <c r="G46">
-        <v>15</v>
+        <v>11.18421052631579</v>
       </c>
       <c r="H46">
-        <v>31.66666666666666</v>
+        <v>17.10526315789474</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="J46">
-        <v>11.66666666666667</v>
+        <v>9.210526315789473</v>
+      </c>
+      <c r="K46">
+        <v>7.236842105263158</v>
       </c>
       <c r="L46">
-        <v>3.333333333333333</v>
+        <v>5.921052631578947</v>
       </c>
       <c r="M46">
-        <v>8.333333333333332</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2210,44 +2048,44 @@
         <v>10</v>
       </c>
       <c r="B47">
-        <v>8.333333333333332</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="C47">
-        <v>2.777777777777778</v>
+        <v>5.64516129032258</v>
       </c>
       <c r="D47">
-        <v>6.944444444444445</v>
+        <v>4.032258064516129</v>
       </c>
       <c r="E47">
-        <v>8.333333333333332</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="F47">
-        <v>13.88888888888889</v>
+        <v>12.09677419354839</v>
       </c>
       <c r="G47">
-        <v>5.555555555555555</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="H47">
-        <v>15.27777777777778</v>
+        <v>12.09677419354839</v>
       </c>
       <c r="I47">
-        <v>8.333333333333332</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="J47">
-        <v>8.333333333333332</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="K47">
-        <v>8.333333333333332</v>
+        <v>8.870967741935484</v>
       </c>
       <c r="L47">
-        <v>6.944444444444445</v>
+        <v>7.258064516129033</v>
       </c>
       <c r="M47">
-        <v>6.944444444444445</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2256,44 +2094,44 @@
         <v>11</v>
       </c>
       <c r="B48">
-        <v>3.389830508474576</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="C48">
-        <v>8.474576271186439</v>
+        <v>10.58823529411765</v>
       </c>
       <c r="D48">
-        <v>3.389830508474576</v>
+        <v>3.529411764705882</v>
       </c>
       <c r="E48">
-        <v>3.389830508474576</v>
+        <v>3.529411764705882</v>
       </c>
       <c r="F48">
-        <v>10.16949152542373</v>
+        <v>8.235294117647058</v>
       </c>
       <c r="G48">
-        <v>8.474576271186439</v>
+        <v>9.411764705882353</v>
       </c>
       <c r="H48">
-        <v>11.86440677966102</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="I48">
-        <v>11.86440677966102</v>
+        <v>8.235294117647058</v>
       </c>
       <c r="J48">
-        <v>16.94915254237288</v>
+        <v>16.47058823529412</v>
       </c>
       <c r="K48">
-        <v>8.474576271186439</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="L48">
-        <v>5.084745762711865</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="M48">
-        <v>8.474576271186439</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2302,44 +2140,44 @@
         <v>12</v>
       </c>
       <c r="B49">
-        <v>9.734513274336283</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="C49">
-        <v>6.637168141592921</v>
+        <v>5.86080586080586</v>
       </c>
       <c r="D49">
-        <v>9.292035398230089</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="E49">
-        <v>8.849557522123893</v>
+        <v>8.424908424908425</v>
       </c>
       <c r="F49">
-        <v>9.292035398230089</v>
+        <v>10.98901098901099</v>
       </c>
       <c r="G49">
-        <v>9.292035398230089</v>
+        <v>9.890109890109891</v>
       </c>
       <c r="H49">
-        <v>7.079646017699115</v>
+        <v>5.86080586080586</v>
       </c>
       <c r="I49">
-        <v>9.292035398230089</v>
+        <v>8.424908424908425</v>
       </c>
       <c r="J49">
-        <v>6.194690265486726</v>
+        <v>6.227106227106227</v>
       </c>
       <c r="K49">
-        <v>6.194690265486726</v>
+        <v>5.86080586080586</v>
       </c>
       <c r="L49">
-        <v>6.637168141592921</v>
+        <v>8.424908424908425</v>
       </c>
       <c r="M49">
-        <v>11.50442477876106</v>
+        <v>10.98901098901099</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2006-2010</t>
         </is>
       </c>
     </row>
@@ -2348,41 +2186,44 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>13.63636363636363</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>11.36363636363636</v>
+        <v>6.153846153846154</v>
       </c>
       <c r="D50">
-        <v>9.090909090909092</v>
+        <v>6.923076923076923</v>
       </c>
       <c r="E50">
-        <v>6.818181818181817</v>
+        <v>5.384615384615385</v>
       </c>
       <c r="F50">
-        <v>4.545454545454546</v>
+        <v>6.153846153846154</v>
       </c>
       <c r="G50">
-        <v>6.818181818181817</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="H50">
-        <v>4.545454545454546</v>
+        <v>6.923076923076923</v>
       </c>
       <c r="I50">
-        <v>11.36363636363636</v>
+        <v>11.53846153846154</v>
+      </c>
+      <c r="J50">
+        <v>9.230769230769232</v>
       </c>
       <c r="K50">
-        <v>13.63636363636363</v>
+        <v>12.30769230769231</v>
       </c>
       <c r="L50">
-        <v>11.36363636363636</v>
+        <v>5.384615384615385</v>
       </c>
       <c r="M50">
-        <v>6.818181818181817</v>
+        <v>8.461538461538462</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2391,44 +2232,41 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>8.403361344537815</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="C51">
-        <v>8.403361344537815</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="D51">
-        <v>5.88235294117647</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="E51">
-        <v>9.243697478991598</v>
+        <v>11.32075471698113</v>
       </c>
       <c r="F51">
-        <v>10.08403361344538</v>
-      </c>
-      <c r="G51">
-        <v>3.361344537815126</v>
+        <v>11.32075471698113</v>
       </c>
       <c r="H51">
-        <v>9.243697478991598</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="I51">
-        <v>10.92436974789916</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="J51">
-        <v>10.92436974789916</v>
+        <v>11.32075471698113</v>
       </c>
       <c r="K51">
-        <v>10.08403361344538</v>
+        <v>11.32075471698113</v>
       </c>
       <c r="L51">
-        <v>3.361344537815126</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="M51">
-        <v>10.08403361344538</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2437,44 +2275,44 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>8.839779005524861</v>
+        <v>9.202453987730062</v>
       </c>
       <c r="C52">
-        <v>7.734806629834254</v>
+        <v>6.748466257668712</v>
       </c>
       <c r="D52">
-        <v>6.629834254143646</v>
+        <v>6.134969325153374</v>
       </c>
       <c r="E52">
-        <v>4.972375690607735</v>
+        <v>4.294478527607362</v>
       </c>
       <c r="F52">
-        <v>8.287292817679557</v>
+        <v>8.588957055214724</v>
       </c>
       <c r="G52">
-        <v>6.077348066298343</v>
+        <v>6.748466257668712</v>
       </c>
       <c r="H52">
-        <v>6.629834254143646</v>
+        <v>6.134969325153374</v>
       </c>
       <c r="I52">
-        <v>13.25966850828729</v>
+        <v>13.49693251533742</v>
       </c>
       <c r="J52">
-        <v>9.94475138121547</v>
+        <v>9.815950920245399</v>
       </c>
       <c r="K52">
-        <v>10.49723756906077</v>
+        <v>10.42944785276074</v>
       </c>
       <c r="L52">
-        <v>11.04972375690608</v>
+        <v>11.65644171779141</v>
       </c>
       <c r="M52">
-        <v>6.077348066298343</v>
+        <v>6.748466257668712</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2483,44 +2321,44 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <v>7.216494845360824</v>
+        <v>6.802721088435375</v>
       </c>
       <c r="C53">
-        <v>5.154639175257731</v>
+        <v>5.442176870748299</v>
       </c>
       <c r="D53">
-        <v>8.762886597938143</v>
+        <v>8.843537414965986</v>
       </c>
       <c r="E53">
-        <v>9.278350515463918</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="F53">
-        <v>7.216494845360824</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="G53">
-        <v>8.24742268041237</v>
+        <v>8.843537414965986</v>
       </c>
       <c r="H53">
-        <v>8.24742268041237</v>
+        <v>8.163265306122449</v>
       </c>
       <c r="I53">
-        <v>10.82474226804124</v>
+        <v>10.8843537414966</v>
       </c>
       <c r="J53">
-        <v>6.701030927835052</v>
+        <v>7.482993197278912</v>
       </c>
       <c r="K53">
-        <v>9.793814432989691</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L53">
-        <v>11.34020618556701</v>
+        <v>12.24489795918367</v>
       </c>
       <c r="M53">
-        <v>7.216494845360824</v>
+        <v>5.442176870748299</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2529,44 +2367,44 @@
         <v>5</v>
       </c>
       <c r="B54">
-        <v>8.235294117647058</v>
+        <v>10.16949152542373</v>
       </c>
       <c r="C54">
-        <v>5.88235294117647</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="D54">
-        <v>10.58823529411765</v>
+        <v>10.16949152542373</v>
       </c>
       <c r="E54">
-        <v>8.235294117647058</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="F54">
-        <v>4.705882352941177</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="G54">
-        <v>7.058823529411764</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="H54">
-        <v>11.76470588235294</v>
+        <v>8.474576271186439</v>
       </c>
       <c r="I54">
-        <v>4.705882352941177</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="J54">
-        <v>15.29411764705882</v>
+        <v>13.5593220338983</v>
       </c>
       <c r="K54">
-        <v>7.058823529411764</v>
+        <v>6.779661016949152</v>
       </c>
       <c r="L54">
-        <v>9.411764705882353</v>
+        <v>10.16949152542373</v>
       </c>
       <c r="M54">
-        <v>7.058823529411764</v>
+        <v>10.16949152542373</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2574,42 +2412,21 @@
       <c r="A55">
         <v>6</v>
       </c>
-      <c r="B55">
-        <v>9.090909090909092</v>
-      </c>
       <c r="C55">
-        <v>15.15151515151515</v>
-      </c>
-      <c r="D55">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="E55">
-        <v>6.060606060606061</v>
-      </c>
-      <c r="G55">
-        <v>6.060606060606061</v>
-      </c>
-      <c r="H55">
-        <v>6.060606060606061</v>
-      </c>
-      <c r="I55">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="J55">
-        <v>6.060606060606061</v>
+        <v>25</v>
       </c>
       <c r="K55">
-        <v>12.12121212121212</v>
+        <v>25</v>
       </c>
       <c r="L55">
-        <v>12.12121212121212</v>
+        <v>12.5</v>
       </c>
       <c r="M55">
-        <v>15.15151515151515</v>
+        <v>37.5</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2618,44 +2435,44 @@
         <v>7</v>
       </c>
       <c r="B56">
-        <v>5.084745762711865</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="C56">
-        <v>6.779661016949152</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="D56">
-        <v>10.16949152542373</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="E56">
-        <v>13.5593220338983</v>
+        <v>14.51612903225807</v>
       </c>
       <c r="F56">
-        <v>1.694915254237288</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="G56">
-        <v>10.16949152542373</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="H56">
-        <v>10.16949152542373</v>
+        <v>11.29032258064516</v>
       </c>
       <c r="I56">
-        <v>11.86440677966102</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="J56">
-        <v>13.5593220338983</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="K56">
-        <v>5.084745762711865</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="L56">
-        <v>5.084745762711865</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="M56">
-        <v>6.779661016949152</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2664,44 +2481,44 @@
         <v>8</v>
       </c>
       <c r="B57">
-        <v>5.660377358490567</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="C57">
-        <v>7.547169811320755</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="D57">
-        <v>11.32075471698113</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="E57">
-        <v>9.433962264150944</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="F57">
-        <v>11.32075471698113</v>
+        <v>14.51612903225807</v>
       </c>
       <c r="G57">
-        <v>9.433962264150944</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="H57">
-        <v>5.660377358490567</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="I57">
-        <v>9.433962264150944</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="J57">
-        <v>13.20754716981132</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="K57">
-        <v>3.773584905660377</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="L57">
-        <v>7.547169811320755</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="M57">
-        <v>5.660377358490567</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2564,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2756,44 +2573,44 @@
         <v>10</v>
       </c>
       <c r="B59">
-        <v>17.47572815533981</v>
+        <v>18.6046511627907</v>
       </c>
       <c r="C59">
-        <v>3.883495145631068</v>
+        <v>4.651162790697675</v>
       </c>
       <c r="D59">
-        <v>1.941747572815534</v>
+        <v>1.162790697674419</v>
       </c>
       <c r="E59">
-        <v>5.825242718446602</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="F59">
-        <v>11.6504854368932</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="G59">
-        <v>9.708737864077669</v>
+        <v>9.302325581395349</v>
       </c>
       <c r="H59">
-        <v>8.737864077669903</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="I59">
-        <v>12.62135922330097</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="J59">
-        <v>10.67961165048544</v>
+        <v>10.46511627906977</v>
       </c>
       <c r="K59">
-        <v>9.708737864077669</v>
+        <v>9.302325581395349</v>
       </c>
       <c r="L59">
-        <v>0.9708737864077669</v>
+        <v>1.162790697674419</v>
       </c>
       <c r="M59">
-        <v>6.796116504854369</v>
+        <v>8.13953488372093</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2653,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2882,7 +2699,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2011-2015</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2745,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -2937,44 +2754,44 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>8.823529411764707</v>
+        <v>8.415841584158416</v>
       </c>
       <c r="C63">
-        <v>8.823529411764707</v>
+        <v>8.415841584158416</v>
       </c>
       <c r="D63">
-        <v>8.823529411764707</v>
+        <v>7.920792079207921</v>
       </c>
       <c r="E63">
-        <v>5.147058823529411</v>
+        <v>5.940594059405941</v>
       </c>
       <c r="F63">
-        <v>8.823529411764707</v>
+        <v>8.91089108910891</v>
       </c>
       <c r="G63">
-        <v>5.88235294117647</v>
+        <v>5.940594059405941</v>
       </c>
       <c r="H63">
-        <v>12.5</v>
+        <v>11.38613861386139</v>
       </c>
       <c r="I63">
-        <v>10.29411764705882</v>
+        <v>10.89108910891089</v>
       </c>
       <c r="J63">
-        <v>5.88235294117647</v>
+        <v>7.425742574257425</v>
       </c>
       <c r="K63">
-        <v>6.61764705882353</v>
+        <v>7.425742574257425</v>
       </c>
       <c r="L63">
-        <v>8.823529411764707</v>
+        <v>7.425742574257425</v>
       </c>
       <c r="M63">
-        <v>9.558823529411764</v>
+        <v>9.900990099009901</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -2983,44 +2800,44 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>10.69182389937107</v>
+        <v>10.6508875739645</v>
       </c>
       <c r="C64">
-        <v>10.69182389937107</v>
+        <v>11.24260355029586</v>
       </c>
       <c r="D64">
-        <v>7.547169811320755</v>
+        <v>8.284023668639055</v>
       </c>
       <c r="E64">
-        <v>7.547169811320755</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="F64">
-        <v>6.289308176100629</v>
+        <v>6.508875739644971</v>
       </c>
       <c r="G64">
-        <v>5.660377358490567</v>
+        <v>5.325443786982249</v>
       </c>
       <c r="H64">
-        <v>11.32075471698113</v>
+        <v>10.6508875739645</v>
       </c>
       <c r="I64">
-        <v>9.433962264150944</v>
+        <v>8.875739644970414</v>
       </c>
       <c r="J64">
-        <v>4.40251572327044</v>
+        <v>5.325443786982249</v>
       </c>
       <c r="K64">
-        <v>9.433962264150944</v>
+        <v>9.467455621301776</v>
       </c>
       <c r="L64">
-        <v>8.176100628930817</v>
+        <v>8.284023668639055</v>
       </c>
       <c r="M64">
-        <v>8.80503144654088</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3029,44 +2846,44 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>3.759398496240602</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>10.52631578947368</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="D65">
-        <v>6.015037593984962</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E65">
-        <v>8.270676691729323</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="F65">
-        <v>9.022556390977442</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="G65">
-        <v>9.774436090225564</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="H65">
-        <v>12.03007518796992</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="I65">
-        <v>8.270676691729323</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="J65">
-        <v>9.022556390977442</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="K65">
-        <v>6.766917293233083</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="L65">
-        <v>9.022556390977442</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="M65">
-        <v>7.518796992481203</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3075,44 +2892,44 @@
         <v>5</v>
       </c>
       <c r="B66">
-        <v>4.285714285714286</v>
+        <v>3.305785123966942</v>
       </c>
       <c r="C66">
-        <v>12.14285714285714</v>
+        <v>14.87603305785124</v>
       </c>
       <c r="D66">
-        <v>9.285714285714286</v>
+        <v>9.917355371900827</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>7.43801652892562</v>
       </c>
       <c r="F66">
-        <v>12.14285714285714</v>
+        <v>10.74380165289256</v>
       </c>
       <c r="G66">
-        <v>6.428571428571428</v>
+        <v>4.958677685950414</v>
       </c>
       <c r="H66">
-        <v>8.571428571428571</v>
+        <v>12.39669421487603</v>
       </c>
       <c r="I66">
-        <v>6.428571428571428</v>
+        <v>4.958677685950414</v>
       </c>
       <c r="J66">
-        <v>5.714285714285714</v>
+        <v>10.74380165289256</v>
       </c>
       <c r="K66">
-        <v>6.428571428571428</v>
+        <v>1.652892561983471</v>
       </c>
       <c r="L66">
-        <v>9.285714285714286</v>
+        <v>9.917355371900827</v>
       </c>
       <c r="M66">
-        <v>9.285714285714286</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3121,44 +2938,44 @@
         <v>6</v>
       </c>
       <c r="B67">
-        <v>2.73224043715847</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="C67">
-        <v>8.196721311475409</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="D67">
-        <v>10.38251366120219</v>
+        <v>9.868421052631579</v>
       </c>
       <c r="E67">
-        <v>9.836065573770492</v>
+        <v>8.552631578947368</v>
       </c>
       <c r="F67">
-        <v>9.289617486338798</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="G67">
-        <v>6.010928961748633</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="H67">
-        <v>9.289617486338798</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="I67">
-        <v>8.743169398907105</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="J67">
-        <v>12.56830601092896</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="K67">
-        <v>4.918032786885246</v>
+        <v>3.289473684210526</v>
       </c>
       <c r="L67">
-        <v>7.103825136612022</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="M67">
-        <v>10.92896174863388</v>
+        <v>11.18421052631579</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3167,41 +2984,38 @@
         <v>7</v>
       </c>
       <c r="B68">
-        <v>5.769230769230769</v>
+        <v>13.95348837209302</v>
       </c>
       <c r="C68">
-        <v>3.846153846153846</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="D68">
-        <v>15.38461538461539</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="E68">
-        <v>9.615384615384617</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="F68">
-        <v>19.23076923076923</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="G68">
-        <v>9.615384615384617</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="H68">
-        <v>17.30769230769231</v>
-      </c>
-      <c r="I68">
-        <v>5.769230769230769</v>
+        <v>13.95348837209302</v>
       </c>
       <c r="J68">
-        <v>5.769230769230769</v>
+        <v>9.302325581395349</v>
+      </c>
+      <c r="K68">
+        <v>2.325581395348837</v>
       </c>
       <c r="L68">
-        <v>5.769230769230769</v>
-      </c>
-      <c r="M68">
-        <v>1.923076923076923</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3043,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3238,26 +3052,23 @@
         <v>9</v>
       </c>
       <c r="B70">
-        <v>5.88235294117647</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="D70">
-        <v>29.41176470588236</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="E70">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="F70">
-        <v>11.76470588235294</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="G70">
-        <v>29.41176470588236</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="K70">
-        <v>5.88235294117647</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3266,44 +3077,44 @@
         <v>10</v>
       </c>
       <c r="B71">
-        <v>4.761904761904762</v>
+        <v>5.813953488372093</v>
       </c>
       <c r="C71">
-        <v>10.71428571428571</v>
+        <v>10.46511627906977</v>
       </c>
       <c r="D71">
-        <v>7.738095238095238</v>
+        <v>7.55813953488372</v>
       </c>
       <c r="E71">
-        <v>7.142857142857142</v>
+        <v>5.813953488372093</v>
       </c>
       <c r="F71">
-        <v>12.5</v>
+        <v>10.46511627906977</v>
       </c>
       <c r="G71">
-        <v>6.547619047619048</v>
+        <v>7.55813953488372</v>
       </c>
       <c r="H71">
-        <v>10.11904761904762</v>
+        <v>10.46511627906977</v>
       </c>
       <c r="I71">
-        <v>10.11904761904762</v>
+        <v>9.883720930232558</v>
       </c>
       <c r="J71">
-        <v>5.952380952380952</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="K71">
-        <v>7.738095238095238</v>
+        <v>8.720930232558139</v>
       </c>
       <c r="L71">
-        <v>5.952380952380952</v>
+        <v>5.813953488372093</v>
       </c>
       <c r="M71">
-        <v>10.71428571428571</v>
+        <v>10.46511627906977</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3157,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3197,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2017-2021</t>
+          <t>2016-2020</t>
         </is>
       </c>
     </row>
